--- a/documents/bdd/Data_Insertion.xlsx
+++ b/documents/bdd/Data_Insertion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Repositorios\gitHubRccs09\seguimiento\seguimiento\documents\bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3242E10-8A21-41BE-A0A2-BAFE308CC861}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFBD15-E00F-4967-8747-14BB18B9A94F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
   </bookViews>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +445,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -763,7 +766,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +858,7 @@
   <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +932,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1012,7 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1242,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
   <dimension ref="B1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,13 +1404,13 @@
         <v>98</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -1426,7 +1429,7 @@
       </c>
       <c r="N2" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",$B$1," (tck_id,tck_code,tck_url,tck_type,tck_status,tck_flow,tck_estimated,tck_date_ini,tck_date_end,tck_date_end_plan,sol_id) VALUES (",C2,",'",D2,"','",E2,"',",F2,",",G2,",",H2,",",I2,",'",J2,"','",K2,"','",L2,"',",M2,");")</f>
-        <v>INSERT INTO ticket (tck_id,tck_code,tck_url,tck_type,tck_status,tck_flow,tck_estimated,tck_date_ini,tck_date_end,tck_date_end_plan,sol_id) VALUES (1,'DEVBDV-789','https://prueba',0,0,0,4,'2019-11-05','2019-11-05','2019-11-05',1);</v>
+        <v>INSERT INTO ticket (tck_id,tck_code,tck_url,tck_type,tck_status,tck_flow,tck_estimated,tck_date_ini,tck_date_end,tck_date_end_plan,sol_id) VALUES (1,'DEVBDV-789','https://prueba',1,1,1,4,'2019-11-05','2019-11-05','2019-11-05',1);</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1445,7 @@
   <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1521,9 +1524,9 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="13" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",$B$2," (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (",C3,",",D3,",",E3,",",F3,"',",G3,"',",H3,"',",I3,",",J3,",",K3,");")</f>
-        <v>INSERT INTO ticket_detail (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (1,0,4,'2019-11-05','2019-11-05','2019-11-05',1,1,1);</v>
+        <v>INSERT INTO ticket_detail (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (1,1,4,'2019-11-05','2019-11-05','2019-11-05',1,1,1);</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1531,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1554,13 +1557,14 @@
       <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="13" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",$B$2," (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (",C4,",",D4,",",E4,",",F4,"',",G4,"',",H4,"',",I4,",",J4,",",K4,");")</f>
-        <v>INSERT INTO ticket_detail (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (2,0,2,'2019-11-05','2019-11-05','2019-11-05',2,1,2);</v>
+        <v>INSERT INTO ticket_detail (dtk_id,dtk_status,dtk_estimated,dtk_date_ini,dtk_date_end,dtk_date_end_plan,rps_id,tck_id,cmp_id) VALUES (2,1,2,'2019-11-05','2019-11-05','2019-11-05',2,1,2);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/bdd/Data_Insertion.xlsx
+++ b/documents/bdd/Data_Insertion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Repositorios\gitHubRccs09\seguimiento\seguimiento\documents\bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFBD15-E00F-4967-8747-14BB18B9A94F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396E741-EE95-4DCE-A4E7-F9143801908B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
   </bookViews>
   <sheets>
     <sheet name="provider" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="component" sheetId="5" r:id="rId5"/>
     <sheet name="ticket" sheetId="6" r:id="rId6"/>
     <sheet name="ticket_detail" sheetId="7" r:id="rId7"/>
-    <sheet name="ticket_qa" sheetId="8" r:id="rId8"/>
-    <sheet name="ticket_prod" sheetId="9" r:id="rId9"/>
+    <sheet name="detail_qa" sheetId="10" r:id="rId8"/>
+    <sheet name="ticket_qa" sheetId="8" r:id="rId9"/>
+    <sheet name="detail_prod" sheetId="11" r:id="rId10"/>
+    <sheet name="ticket_prod" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -351,12 +353,24 @@
   <si>
     <t>'2019-11-05</t>
   </si>
+  <si>
+    <t>dqa_id</t>
+  </si>
+  <si>
+    <t>id del ticket de QA</t>
+  </si>
+  <si>
+    <t>dprod_id</t>
+  </si>
+  <si>
+    <t>id del ticket de produccion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +390,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,6 +470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -853,6 +877,219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC2B2DD-EE41-4DAF-B3E1-4E9C87EE2B83}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AFF90-5406-4892-891D-3093479B9B2C}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50088830-B550-46BE-91B6-E3229ED00A66}">
   <dimension ref="B2:G4"/>
@@ -1444,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9756B2-5868-4E39-8AD3-CC6D0003C113}">
   <dimension ref="B2:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
@@ -1569,6 +1806,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F424B1-B8D8-4F5D-B917-D47E3D05AE04}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB777E-7020-4A72-96A4-2A3582B67F20}">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -1715,139 +2027,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AFF90-5406-4892-891D-3093479B9B2C}">
-  <dimension ref="B2:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>